--- a/Ing_economica/cap11/Ejemplos Cap11VIRTUAL.xlsx
+++ b/Ing_economica/cap11/Ejemplos Cap11VIRTUAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris Pat\Desktop\U\Semestre_10\Ing_economica\cap11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F35817-A0F2-4400-83C4-60D4DEC468AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE44CB56-73C2-4E66-A277-1424DD3A1422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplo 11.2" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">-19123</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="185">
   <si>
     <t>de $12,000 este año, pero se esperera que caiga hasta un valor casi nulo en el futuro: $2,000 el próximo</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -827,6 +827,30 @@
   </si>
   <si>
     <t>celda del valor actual debe ser un número negativo</t>
+  </si>
+  <si>
+    <t>--&gt; lo q debo generar cada año para recuperar</t>
+  </si>
+  <si>
+    <t>opción 1</t>
+  </si>
+  <si>
+    <t>opción 2</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Lo mismo pero cambio el valor del tiempo</t>
+  </si>
+  <si>
+    <t>2 AÑOS</t>
+  </si>
+  <si>
+    <t>3 AÑOS</t>
+  </si>
+  <si>
+    <t>4 AÑOS</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1133,14 +1157,15 @@
     <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2098,7 +2123,7 @@
         <f>-PMT($B$17,A23,NPV($B$17,$C$21:C23))</f>
         <v>-2717.5226586102726</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="47">
         <f t="shared" si="1"/>
         <v>-6132.3262839879171</v>
       </c>
@@ -2305,7 +2330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
@@ -2322,72 +2347,72 @@
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -2396,7 +2421,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -2404,17 +2429,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
         <v>164</v>
       </c>
@@ -2422,67 +2447,67 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>80</v>
       </c>
@@ -2490,7 +2515,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -2502,12 +2527,12 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B38" s="6">
         <v>0.8</v>
       </c>
@@ -2515,7 +2540,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>77</v>
       </c>
@@ -2535,7 +2560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0</v>
       </c>
@@ -2546,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2557,7 +2582,7 @@
       <c r="C41" s="1">
         <v>-5000</v>
       </c>
-      <c r="D41" s="49">
+      <c r="D41" s="48">
         <f>-PMT($D$35,A41,-$D$36,B41)</f>
         <v>-15000</v>
       </c>
@@ -2570,7 +2595,7 @@
         <v>-20000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -2582,7 +2607,7 @@
         <f>C41+$C$38</f>
         <v>-7000</v>
       </c>
-      <c r="D42" s="49">
+      <c r="D42" s="48">
         <f t="shared" ref="D42:D45" si="0">-PMT($D$35,A42,-$D$36,B42)</f>
         <v>-13571.428571428574</v>
       </c>
@@ -2595,7 +2620,7 @@
         <v>-19523.809523809527</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2607,7 +2632,7 @@
         <f>C42+$C$38</f>
         <v>-9000</v>
       </c>
-      <c r="D43" s="49">
+      <c r="D43" s="48">
         <f t="shared" si="0"/>
         <v>-12371.601208459217</v>
       </c>
@@ -2620,7 +2645,7 @@
         <v>-19244.712990936561</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="45">
         <v>4</v>
       </c>
@@ -2632,7 +2657,7 @@
         <f>C43+$C$38</f>
         <v>-11000</v>
       </c>
-      <c r="D44" s="49">
+      <c r="D44" s="48">
         <f t="shared" si="0"/>
         <v>-11360.698125404007</v>
       </c>
@@ -2648,7 +2673,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2660,7 +2685,7 @@
         <f>C44+$C$38</f>
         <v>-13000</v>
       </c>
-      <c r="D45" s="49">
+      <c r="D45" s="48">
         <f t="shared" si="0"/>
         <v>-10506.216114396162</v>
       </c>
@@ -2674,11 +2699,11 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="49" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>80</v>
       </c>
@@ -2686,7 +2711,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -2697,7 +2722,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -2708,7 +2733,7 @@
         <v>-16000</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" s="6">
         <v>0.8</v>
       </c>
@@ -2716,7 +2741,7 @@
         <v>-4000</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>82</v>
       </c>
@@ -2736,7 +2761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0</v>
       </c>
@@ -2748,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2773,7 +2798,7 @@
         <v>-24500</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2798,7 +2823,7 @@
         <v>-18357.142857142859</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="45">
         <v>3</v>
       </c>
@@ -2826,7 +2851,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G58" s="1">
         <f>F44-F56</f>
         <v>-1816.3873032364172</v>
@@ -2836,7 +2861,7 @@
         <v>-363277.46064728347</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>80</v>
       </c>
@@ -2844,7 +2869,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -2855,7 +2880,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -2866,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" s="6">
         <v>0.8</v>
       </c>
@@ -2874,7 +2899,7 @@
         <v>-4000</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>82</v>
       </c>
@@ -2894,7 +2919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0</v>
       </c>
@@ -2906,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2929,7 +2954,7 @@
         <v>-23200</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2955,7 +2980,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H67" t="s">
         <v>90</v>
       </c>
@@ -2972,12 +2997,12 @@
         <v>339202.75802628824</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>80</v>
       </c>
@@ -2991,7 +3016,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>52</v>
       </c>
@@ -3002,7 +3027,7 @@
         <v>22340.818070818048</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>92</v>
       </c>
@@ -3013,7 +3038,7 @@
         <v>-16000</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B78" s="6">
         <v>0.8</v>
       </c>
@@ -3021,7 +3046,7 @@
         <v>-4000</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>82</v>
       </c>
@@ -3047,7 +3072,7 @@
         <v>22341</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0</v>
       </c>
@@ -3059,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3084,7 +3109,7 @@
         <v>-26702.245421245414</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2</v>
       </c>
@@ -3109,7 +3134,7 @@
         <v>-20349.650619222044</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>3</v>
       </c>
@@ -3149,8 +3174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3234,15 +3259,15 @@
       </c>
       <c r="I9" s="42">
         <f>$E$26</f>
-        <v>0</v>
+        <v>-23533.88892038845</v>
       </c>
       <c r="J9" s="42">
         <f>$G$27</f>
-        <v>0</v>
+        <v>-116954.44203228851</v>
       </c>
       <c r="K9" s="42">
         <f>I9+J9</f>
-        <v>0</v>
+        <v>-140488.33095267697</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3257,11 +3282,11 @@
       </c>
       <c r="I10" s="42">
         <f t="shared" ref="I10:I18" si="0">$E$26</f>
-        <v>0</v>
+        <v>-23533.88892038845</v>
       </c>
       <c r="J10" s="42">
         <f t="shared" ref="J10:J18" si="1">$G$27</f>
-        <v>0</v>
+        <v>-116954.44203228851</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3276,11 +3301,11 @@
       </c>
       <c r="I11" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-23533.88892038845</v>
       </c>
       <c r="J11" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-116954.44203228851</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3292,15 +3317,15 @@
       </c>
       <c r="H12" s="42">
         <f>$E$27-50000</f>
-        <v>-50000</v>
+        <v>-196470.85539426046</v>
       </c>
       <c r="I12" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-23533.88892038845</v>
       </c>
       <c r="J12" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-116954.44203228851</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3312,15 +3337,15 @@
       </c>
       <c r="H13" s="42">
         <f t="shared" ref="H13:H18" si="2">$E$27-50000</f>
-        <v>-50000</v>
+        <v>-196470.85539426046</v>
       </c>
       <c r="I13" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-23533.88892038845</v>
       </c>
       <c r="J13" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-116954.44203228851</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3332,15 +3357,15 @@
       </c>
       <c r="H14" s="42">
         <f t="shared" si="2"/>
-        <v>-50000</v>
+        <v>-196470.85539426046</v>
       </c>
       <c r="I14" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-23533.88892038845</v>
       </c>
       <c r="J14" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-116954.44203228851</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3352,15 +3377,15 @@
       </c>
       <c r="H15" s="42">
         <f t="shared" si="2"/>
-        <v>-50000</v>
+        <v>-196470.85539426046</v>
       </c>
       <c r="I15" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-23533.88892038845</v>
       </c>
       <c r="J15" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-116954.44203228851</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3372,15 +3397,15 @@
       </c>
       <c r="H16" s="42">
         <f t="shared" si="2"/>
-        <v>-50000</v>
+        <v>-196470.85539426046</v>
       </c>
       <c r="I16" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-23533.88892038845</v>
       </c>
       <c r="J16" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-116954.44203228851</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -3392,15 +3417,15 @@
       </c>
       <c r="H17" s="42">
         <f t="shared" si="2"/>
-        <v>-50000</v>
+        <v>-196470.85539426046</v>
       </c>
       <c r="I17" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-23533.88892038845</v>
       </c>
       <c r="J17" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-116954.44203228851</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -3412,15 +3437,15 @@
       </c>
       <c r="H18" s="42">
         <f t="shared" si="2"/>
-        <v>-50000</v>
+        <v>-196470.85539426046</v>
       </c>
       <c r="I18" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-23533.88892038845</v>
       </c>
       <c r="J18" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-116954.44203228851</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -3432,7 +3457,7 @@
       </c>
       <c r="H19" s="42">
         <f>NPV(10%,H9:H18)+H8</f>
-        <v>-327491.31546554953</v>
+        <v>-863239.97710717062</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -3444,7 +3469,7 @@
       </c>
       <c r="H20" s="42">
         <f>PMT(10%,10,-H19)</f>
-        <v>-53297.70345603404</v>
+        <v>-140488.33095267677</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -3478,7 +3503,10 @@
         <f>-PMT(0.1,10,-750000)-50000</f>
         <v>-172059.04616188369</v>
       </c>
-      <c r="C25" s="43"/>
+      <c r="C25" s="43">
+        <f>-PMT(10%,10,-750000)-50000</f>
+        <v>-172059.04616188369</v>
+      </c>
       <c r="F25">
         <v>3</v>
       </c>
@@ -3498,8 +3526,14 @@
         <f>PMT(0.1,10,-B26)</f>
         <v>-23533.88892038845</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="43"/>
+      <c r="D26" s="44">
+        <f>-PV(10%,3,-30000)-70000</f>
+        <v>-144605.55972952675</v>
+      </c>
+      <c r="E26" s="43">
+        <f>-PMT(10%,10,D26)</f>
+        <v>-23533.88892038845</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -3517,10 +3551,22 @@
         <f>-PMT(0.1,10,,C27)</f>
         <v>-116954.44203228851</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
+      <c r="E27" s="43">
+        <f>-PMT(10%,10,-900000)</f>
+        <v>-146470.85539426046</v>
+      </c>
+      <c r="F27" s="43">
+        <f>-FV(10%,7,E27-50000)</f>
+        <v>-1863952.6016416235</v>
+      </c>
+      <c r="G27" s="43">
+        <f>-PMT(10%,10,,F27)</f>
+        <v>-116954.44203228851</v>
+      </c>
+      <c r="H27" s="44">
+        <f>G27+E26</f>
+        <v>-140488.33095267697</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
@@ -3562,10 +3608,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3700,10 +3746,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="47"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="22" t="s">
         <v>42</v>
       </c>
@@ -3822,7 +3868,7 @@
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
-      <c r="D31" s="27">
+      <c r="D31" s="38">
         <f>-PMT(0.12,D28,D24,D27)+D25</f>
         <v>-32385.694098573276</v>
       </c>
@@ -3840,15 +3886,236 @@
         <v>-10111.145264191739</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D33" s="27"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D34" s="27"/>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="48">
+        <f>-PMT(12%,B28,-B26,B27)+B25</f>
+        <v>-13615.570993289668</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="48">
+        <f>-PMT(12%,C28,C24,C27)+C25</f>
+        <v>-28881.268369475347</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="48">
+        <f>B36+B35</f>
+        <v>-42496.839362765015</v>
+      </c>
+      <c r="C38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="48">
+        <f>-PMT(12%,D28,D24,D27)+D25</f>
+        <v>-32385.694098573276</v>
+      </c>
+      <c r="C40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="50"/>
+      <c r="D45" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="37.799999999999997" x14ac:dyDescent="0.2">
+      <c r="B46" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="15">
+        <v>-151000</v>
+      </c>
+      <c r="C47" s="16">
+        <v>-175000</v>
+      </c>
+      <c r="D47" s="20">
+        <v>-190000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="15">
+        <v>-1500</v>
+      </c>
+      <c r="C48" s="16">
+        <v>-1500</v>
+      </c>
+      <c r="D48" s="20">
+        <v>-2500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="26">
+        <v>70000</v>
+      </c>
+      <c r="C49" s="16">
+        <v>0</v>
+      </c>
+      <c r="D49" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="23">
+        <f>-0.1*B47</f>
+        <v>15100</v>
+      </c>
+      <c r="C50" s="24">
+        <f>-0.12*C47</f>
+        <v>21000</v>
+      </c>
+      <c r="D50" s="25">
+        <f>-0.1*D47</f>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="17">
+        <v>9</v>
+      </c>
+      <c r="C51" s="18">
+        <v>9</v>
+      </c>
+      <c r="D51" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="27">
+        <f>-PMT(0.12,B51,-B49,B50)+B48</f>
+        <v>-13615.570993289668</v>
+      </c>
+      <c r="C53" s="27">
+        <f>-PMT(0.12,C51,C47,C50)+C48</f>
+        <v>-32922.54887006573</v>
+      </c>
+      <c r="D53" s="27">
+        <f>SUM(B53+C53)</f>
+        <v>-46538.119863355401</v>
+      </c>
+      <c r="E53" s="27"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="38">
+        <f>-PMT(0.12,D51,D47,D50)+D48</f>
+        <v>-36873.089979098964</v>
+      </c>
+      <c r="E54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C55" s="27">
+        <f>SUM(B54:C54)</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="27">
+        <f>D53-D54</f>
+        <v>-9665.0298842564371</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D56" s="27"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D57" s="27"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="48">
+        <f>-PMT(12%,B51,-B49,B50)+B48</f>
+        <v>-13615.570993289668</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="48">
+        <f>-PMT(12%,C51,C47,C50)+C48</f>
+        <v>-32922.54887006573</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="48">
+        <f>B59+B58</f>
+        <v>-46538.119863355401</v>
+      </c>
+      <c r="C61" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="48">
+        <f>-PMT(12%,D51,D47,D50)+D48</f>
+        <v>-36873.089979098964</v>
+      </c>
+      <c r="C63" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3864,8 +4131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -4184,6 +4451,13 @@
         <f>-PMT(12%,A25,B23,B25)+B20</f>
         <v>-60584.905660377364</v>
       </c>
+      <c r="E25" s="27">
+        <f>-PMT(12%,A25,B23,B25)-C23</f>
+        <v>-60584.905660377364</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -4197,6 +4471,13 @@
         <f>-PMT(12%,A26,B23,B26)+B20</f>
         <v>-59226.17354196302</v>
       </c>
+      <c r="E26" s="27">
+        <f>-PMT(12%,A26,B23,B26)-C23</f>
+        <v>-59226.17354196302</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -4209,6 +4490,13 @@
       <c r="D27" s="27">
         <f>-PMT(12%,A27,B23,B27)+B20</f>
         <v>-57923.443630568981</v>
+      </c>
+      <c r="E27" s="27">
+        <f>-PMT(12%,A27,B23,B27)-C23</f>
+        <v>-57923.443630568981</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
